--- a/medicine/Psychotrope/Union_de_la_sommellerie_française/Union_de_la_sommellerie_française.xlsx
+++ b/medicine/Psychotrope/Union_de_la_sommellerie_française/Union_de_la_sommellerie_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_de_la_sommellerie_fran%C3%A7aise</t>
+          <t>Union_de_la_sommellerie_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union De la Sommellerie Française ou UDSF est une union d'associations à but non lucratif créée le 3 juin 1969 (déposée le 1er avril 1970) succédant à L'Union des Sommeliers créée à Paris (France) en 1907 pour promouvoir le métier de sommelier[1]. Elle est actuellement présidée par Fabrice Sommier[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union De la Sommellerie Française ou UDSF est une union d'associations à but non lucratif créée le 3 juin 1969 (déposée le 1er avril 1970) succédant à L'Union des Sommeliers créée à Paris (France) en 1907 pour promouvoir le métier de sommelier. Elle est actuellement présidée par Fabrice Sommier,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union_de_la_sommellerie_fran%C3%A7aise</t>
+          <t>Union_de_la_sommellerie_française</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'UDSF est membre fondateur de l'Association de la Sommellerie Internationale (ASI) et participe aux concours du :
 « Meilleur Sommelier de France » ;
@@ -520,7 +534,7 @@
 « Concours du Meilleur Sommelier d'Europe » ;
 « Concours du Meilleur Sommelier du Monde » ;
 « Un des Meilleurs Ouvriers de France-Sommellerie ».
-L'Union de la Sommellerie Française regroupe 23 associations régionales et comprend environ 1 300 membres (en 2023)[2].
+L'Union de la Sommellerie Française regroupe 23 associations régionales et comprend environ 1 300 membres (en 2023).
 </t>
         </is>
       </c>
